--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-005  Control de Registros UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-005  Control de Registros UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name=" SGC - FOR - 05 " sheetId="1" r:id="rId3"/>
@@ -1046,7 +1046,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -1241,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2100,7 +2100,7 @@
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.5905511811023623" footer="0.0" header="0.0" left="0.35433070866141736" right="0.2755905511811024" top="0.5905511811023623"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup fitToWidth="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;RVersión No  . 1 Fecha de Aprobación Enero de 2018</oddFooter>
   </headerFooter>
